--- a/agm-backend/pre-project-phase/garlic price list.xlsx
+++ b/agm-backend/pre-project-phase/garlic price list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antal\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmcse\Desktop\fiverr\AgMProjet\agm-backend\pre-project-phase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0E4F685-BF7C-4AE3-805D-C3128C215866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB87D394-0E63-462D-95EB-4D2B831A71A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agmarknet_Price_And_Arrival_Rep" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="296">
   <si>
     <t>Both Price And Arrival from 20-Mar-2024 To 20-Mar-2024 Total Arrival- 5930.59</t>
   </si>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1478,19 +1478,19 @@
     <xf numFmtId="15" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1845,42 +1845,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J214"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="14.08984375" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" ht="65" x14ac:dyDescent="0.35">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1912,16 +1912,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1944,7 +1942,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="65.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1976,7 +1974,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -2008,7 +2006,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2040,7 +2038,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -2072,7 +2070,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -2104,7 +2102,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2136,7 +2134,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2168,7 +2166,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2200,7 +2198,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -2232,7 +2230,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -2264,7 +2262,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -2296,7 +2294,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2328,7 +2326,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="65.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -2360,7 +2358,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -2392,7 +2390,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -2424,7 +2422,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -2456,7 +2454,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -2488,7 +2486,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -2520,7 +2518,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -2552,7 +2550,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -2584,7 +2582,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -2616,7 +2614,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -2648,7 +2646,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="65.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2680,7 +2678,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -2712,7 +2710,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -2744,7 +2742,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
@@ -2776,7 +2774,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
@@ -2808,7 +2806,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
@@ -2840,7 +2838,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
@@ -2872,7 +2870,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
@@ -2904,7 +2902,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
@@ -2936,7 +2934,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>61</v>
       </c>
@@ -2968,7 +2966,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>61</v>
       </c>
@@ -3000,7 +2998,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>61</v>
       </c>
@@ -3032,7 +3030,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>61</v>
       </c>
@@ -3064,7 +3062,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>61</v>
       </c>
@@ -3096,7 +3094,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
@@ -3128,7 +3126,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>61</v>
       </c>
@@ -3160,7 +3158,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>61</v>
       </c>
@@ -3192,7 +3190,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
@@ -3224,7 +3222,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>79</v>
       </c>
@@ -3256,7 +3254,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
@@ -3272,7 +3270,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="7">
         <v>22.01</v>
       </c>
       <c r="G45" s="2">
@@ -3288,7 +3286,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -3304,7 +3302,7 @@
       <c r="E46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="6"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="2">
         <v>3400</v>
       </c>
@@ -3318,7 +3316,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>79</v>
       </c>
@@ -3334,7 +3332,7 @@
       <c r="E47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="7"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="2">
         <v>100</v>
       </c>
@@ -3348,7 +3346,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>79</v>
       </c>
@@ -3364,7 +3362,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="7">
         <v>245.77</v>
       </c>
       <c r="G48" s="2">
@@ -3380,7 +3378,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>79</v>
       </c>
@@ -3396,7 +3394,7 @@
       <c r="E49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="6"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="2">
         <v>2600</v>
       </c>
@@ -3410,7 +3408,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>79</v>
       </c>
@@ -3426,7 +3424,7 @@
       <c r="E50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="6"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="2">
         <v>1000</v>
       </c>
@@ -3440,7 +3438,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>79</v>
       </c>
@@ -3456,7 +3454,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="6"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="2">
         <v>6300</v>
       </c>
@@ -3470,7 +3468,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
@@ -3486,7 +3484,7 @@
       <c r="E52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="2">
         <v>4000</v>
       </c>
@@ -3500,7 +3498,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>79</v>
       </c>
@@ -3516,7 +3514,7 @@
       <c r="E53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="7">
         <v>61.58</v>
       </c>
       <c r="G53" s="2">
@@ -3532,7 +3530,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>79</v>
       </c>
@@ -3548,7 +3546,7 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="8"/>
       <c r="G54" s="2">
         <v>500</v>
       </c>
@@ -3562,7 +3560,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>79</v>
       </c>
@@ -3594,7 +3592,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>79</v>
       </c>
@@ -3626,7 +3624,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>79</v>
       </c>
@@ -3658,7 +3656,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>79</v>
       </c>
@@ -3674,7 +3672,7 @@
       <c r="E58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="7">
         <v>705.95</v>
       </c>
       <c r="G58" s="2">
@@ -3690,7 +3688,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>79</v>
       </c>
@@ -3706,7 +3704,7 @@
       <c r="E59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="7"/>
+      <c r="F59" s="8"/>
       <c r="G59" s="2">
         <v>6400</v>
       </c>
@@ -3720,7 +3718,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>79</v>
       </c>
@@ -3736,7 +3734,7 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="7">
         <v>252.19</v>
       </c>
       <c r="G60" s="2">
@@ -3752,7 +3750,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
@@ -3768,7 +3766,7 @@
       <c r="E61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="7"/>
+      <c r="F61" s="8"/>
       <c r="G61" s="2">
         <v>1000</v>
       </c>
@@ -3782,7 +3780,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>79</v>
       </c>
@@ -3814,7 +3812,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>79</v>
       </c>
@@ -3846,7 +3844,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>79</v>
       </c>
@@ -3878,7 +3876,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>79</v>
       </c>
@@ -3894,7 +3892,7 @@
       <c r="E65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="7">
         <v>438.65</v>
       </c>
       <c r="G65" s="2">
@@ -3910,7 +3908,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>79</v>
       </c>
@@ -3926,7 +3924,7 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="7"/>
+      <c r="F66" s="8"/>
       <c r="G66" s="2">
         <v>4000</v>
       </c>
@@ -3940,7 +3938,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>79</v>
       </c>
@@ -3972,7 +3970,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>79</v>
       </c>
@@ -3988,7 +3986,7 @@
       <c r="E68" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="7">
         <v>117.59</v>
       </c>
       <c r="G68" s="2">
@@ -4004,7 +4002,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>79</v>
       </c>
@@ -4020,7 +4018,7 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="7"/>
+      <c r="F69" s="8"/>
       <c r="G69" s="2">
         <v>1700</v>
       </c>
@@ -4034,7 +4032,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>79</v>
       </c>
@@ -4050,7 +4048,7 @@
       <c r="E70" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="7">
         <v>272.54000000000002</v>
       </c>
       <c r="G70" s="2">
@@ -4066,7 +4064,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>79</v>
       </c>
@@ -4082,7 +4080,7 @@
       <c r="E71" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="7"/>
+      <c r="F71" s="8"/>
       <c r="G71" s="2">
         <v>1011</v>
       </c>
@@ -4096,7 +4094,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>79</v>
       </c>
@@ -4112,7 +4110,7 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="7">
         <v>156.88999999999999</v>
       </c>
       <c r="G72" s="2">
@@ -4128,7 +4126,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>79</v>
       </c>
@@ -4144,7 +4142,7 @@
       <c r="E73" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="7"/>
+      <c r="F73" s="8"/>
       <c r="G73" s="2">
         <v>500</v>
       </c>
@@ -4158,7 +4156,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
@@ -4174,7 +4172,7 @@
       <c r="E74" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="7">
         <v>59.16</v>
       </c>
       <c r="G74" s="2">
@@ -4190,7 +4188,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
@@ -4206,7 +4204,7 @@
       <c r="E75" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="6"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="2">
         <v>8600</v>
       </c>
@@ -4220,7 +4218,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
@@ -4236,7 +4234,7 @@
       <c r="E76" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="7"/>
+      <c r="F76" s="8"/>
       <c r="G76" s="2">
         <v>2000</v>
       </c>
@@ -4250,7 +4248,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
@@ -4266,7 +4264,7 @@
       <c r="E77" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="7">
         <v>180.25</v>
       </c>
       <c r="G77" s="2">
@@ -4282,7 +4280,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
@@ -4298,7 +4296,7 @@
       <c r="E78" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="7"/>
+      <c r="F78" s="8"/>
       <c r="G78" s="2">
         <v>2568</v>
       </c>
@@ -4312,7 +4310,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -4344,7 +4342,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>79</v>
       </c>
@@ -4376,7 +4374,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -4408,7 +4406,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>79</v>
       </c>
@@ -4440,7 +4438,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>79</v>
       </c>
@@ -4472,7 +4470,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>79</v>
       </c>
@@ -4504,7 +4502,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>113</v>
       </c>
@@ -4536,7 +4534,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>113</v>
       </c>
@@ -4568,7 +4566,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="78.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>113</v>
       </c>
@@ -4600,7 +4598,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>113</v>
       </c>
@@ -4632,7 +4630,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>113</v>
       </c>
@@ -4664,7 +4662,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>113</v>
       </c>
@@ -4696,7 +4694,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>113</v>
       </c>
@@ -4728,7 +4726,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>113</v>
       </c>
@@ -4760,7 +4758,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>113</v>
       </c>
@@ -4792,7 +4790,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>113</v>
       </c>
@@ -4824,7 +4822,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>129</v>
       </c>
@@ -4856,7 +4854,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>129</v>
       </c>
@@ -4888,7 +4886,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>129</v>
       </c>
@@ -4920,7 +4918,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>129</v>
       </c>
@@ -4952,7 +4950,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="91.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>136</v>
       </c>
@@ -4984,7 +4982,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>136</v>
       </c>
@@ -5016,7 +5014,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>136</v>
       </c>
@@ -5048,7 +5046,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>136</v>
       </c>
@@ -5080,7 +5078,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>136</v>
       </c>
@@ -5112,7 +5110,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>136</v>
       </c>
@@ -5144,7 +5142,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>136</v>
       </c>
@@ -5176,7 +5174,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>136</v>
       </c>
@@ -5208,7 +5206,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>136</v>
       </c>
@@ -5240,7 +5238,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>136</v>
       </c>
@@ -5272,7 +5270,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>136</v>
       </c>
@@ -5304,7 +5302,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>136</v>
       </c>
@@ -5336,7 +5334,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="65.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>136</v>
       </c>
@@ -5368,7 +5366,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>136</v>
       </c>
@@ -5400,7 +5398,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>136</v>
       </c>
@@ -5432,7 +5430,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>136</v>
       </c>
@@ -5464,7 +5462,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>136</v>
       </c>
@@ -5496,7 +5494,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>136</v>
       </c>
@@ -5528,7 +5526,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>136</v>
       </c>
@@ -5560,7 +5558,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>136</v>
       </c>
@@ -5592,7 +5590,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>136</v>
       </c>
@@ -5624,7 +5622,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>136</v>
       </c>
@@ -5656,7 +5654,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>136</v>
       </c>
@@ -5688,7 +5686,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>172</v>
       </c>
@@ -5720,7 +5718,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>172</v>
       </c>
@@ -5752,7 +5750,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>172</v>
       </c>
@@ -5784,7 +5782,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>172</v>
       </c>
@@ -5816,7 +5814,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>172</v>
       </c>
@@ -5848,7 +5846,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>172</v>
       </c>
@@ -5880,7 +5878,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>172</v>
       </c>
@@ -5912,7 +5910,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="65.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>172</v>
       </c>
@@ -5944,7 +5942,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>172</v>
       </c>
@@ -5976,7 +5974,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>172</v>
       </c>
@@ -6008,7 +6006,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>172</v>
       </c>
@@ -6040,7 +6038,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>172</v>
       </c>
@@ -6072,7 +6070,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>172</v>
       </c>
@@ -6104,7 +6102,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>172</v>
       </c>
@@ -6136,7 +6134,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>172</v>
       </c>
@@ -6168,7 +6166,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>194</v>
       </c>
@@ -6200,7 +6198,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>197</v>
       </c>
@@ -6232,7 +6230,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>197</v>
       </c>
@@ -6264,7 +6262,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>197</v>
       </c>
@@ -6296,7 +6294,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>197</v>
       </c>
@@ -6328,7 +6326,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>197</v>
       </c>
@@ -6360,7 +6358,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>197</v>
       </c>
@@ -6392,7 +6390,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>197</v>
       </c>
@@ -6424,7 +6422,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>197</v>
       </c>
@@ -6456,7 +6454,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>197</v>
       </c>
@@ -6488,7 +6486,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>197</v>
       </c>
@@ -6520,7 +6518,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>197</v>
       </c>
@@ -6552,7 +6550,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>197</v>
       </c>
@@ -6584,7 +6582,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>197</v>
       </c>
@@ -6616,7 +6614,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>197</v>
       </c>
@@ -6648,7 +6646,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>197</v>
       </c>
@@ -6680,7 +6678,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>197</v>
       </c>
@@ -6712,7 +6710,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>197</v>
       </c>
@@ -6744,7 +6742,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>197</v>
       </c>
@@ -6776,7 +6774,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>197</v>
       </c>
@@ -6808,7 +6806,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>197</v>
       </c>
@@ -6840,7 +6838,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>197</v>
       </c>
@@ -6872,7 +6870,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>197</v>
       </c>
@@ -6904,7 +6902,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>197</v>
       </c>
@@ -6936,7 +6934,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>197</v>
       </c>
@@ -6968,7 +6966,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>197</v>
       </c>
@@ -7000,7 +6998,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>197</v>
       </c>
@@ -7032,7 +7030,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>197</v>
       </c>
@@ -7064,7 +7062,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>197</v>
       </c>
@@ -7096,7 +7094,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>197</v>
       </c>
@@ -7128,7 +7126,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>197</v>
       </c>
@@ -7160,7 +7158,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>197</v>
       </c>
@@ -7192,7 +7190,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>197</v>
       </c>
@@ -7224,7 +7222,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>197</v>
       </c>
@@ -7256,7 +7254,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>197</v>
       </c>
@@ -7288,7 +7286,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>197</v>
       </c>
@@ -7320,7 +7318,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>197</v>
       </c>
@@ -7352,7 +7350,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>197</v>
       </c>
@@ -7384,7 +7382,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>197</v>
       </c>
@@ -7416,7 +7414,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>197</v>
       </c>
@@ -7448,7 +7446,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>197</v>
       </c>
@@ -7480,7 +7478,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>197</v>
       </c>
@@ -7512,7 +7510,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>197</v>
       </c>
@@ -7544,7 +7542,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>197</v>
       </c>
@@ -7576,7 +7574,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>197</v>
       </c>
@@ -7608,7 +7606,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>197</v>
       </c>
@@ -7640,7 +7638,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>197</v>
       </c>
@@ -7672,7 +7670,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>197</v>
       </c>
@@ -7704,7 +7702,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>197</v>
       </c>
@@ -7736,7 +7734,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>197</v>
       </c>
@@ -7768,7 +7766,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>197</v>
       </c>
@@ -7800,7 +7798,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>197</v>
       </c>
@@ -7832,7 +7830,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>197</v>
       </c>
@@ -7864,7 +7862,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>197</v>
       </c>
@@ -7896,7 +7894,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>197</v>
       </c>
@@ -7928,7 +7926,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>197</v>
       </c>
@@ -7960,7 +7958,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>197</v>
       </c>
@@ -7992,7 +7990,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>197</v>
       </c>
@@ -8024,7 +8022,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>197</v>
       </c>
@@ -8056,7 +8054,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>197</v>
       </c>
@@ -8088,7 +8086,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>197</v>
       </c>
@@ -8120,7 +8118,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -8152,7 +8150,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>197</v>
       </c>
@@ -8184,7 +8182,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>197</v>
       </c>
@@ -8216,7 +8214,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>197</v>
       </c>
@@ -8248,7 +8246,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>197</v>
       </c>
@@ -8280,7 +8278,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>197</v>
       </c>
@@ -8312,7 +8310,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>197</v>
       </c>
@@ -8344,7 +8342,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>197</v>
       </c>
@@ -8376,7 +8374,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>197</v>
       </c>
@@ -8408,7 +8406,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>197</v>
       </c>
@@ -8440,7 +8438,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>285</v>
       </c>
@@ -8472,7 +8470,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>285</v>
       </c>
@@ -8504,7 +8502,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>285</v>
       </c>
@@ -8536,7 +8534,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>290</v>
       </c>
@@ -8568,7 +8566,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="78.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>290</v>
       </c>
@@ -8584,7 +8582,7 @@
       <c r="E212" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F212" s="5">
+      <c r="F212" s="7">
         <v>65</v>
       </c>
       <c r="G212" s="2">
@@ -8600,7 +8598,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="78.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>290</v>
       </c>
@@ -8616,7 +8614,7 @@
       <c r="E213" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F213" s="7"/>
+      <c r="F213" s="8"/>
       <c r="G213" s="2">
         <v>12000</v>
       </c>
@@ -8630,7 +8628,7 @@
         <v>45371</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>290</v>
       </c>
@@ -8664,11 +8662,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F74:F76"/>
     <mergeCell ref="F77:F78"/>
     <mergeCell ref="F212:F213"/>
     <mergeCell ref="F45:F47"/>
@@ -8677,6 +8670,11 @@
     <mergeCell ref="F58:F59"/>
     <mergeCell ref="F60:F61"/>
     <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F76"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
